--- a/data/trans_dic/P07_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P07_R2-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7566631121261367</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.7647045066527861</v>
+        <v>0.7647045066527862</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.8179470205868383</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7925241678362854</v>
+        <v>0.7917637970086501</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7010357952055494</v>
+        <v>0.7000416728522024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6997929183695911</v>
+        <v>0.6979328233596575</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7226443141601407</v>
+        <v>0.7140127970643753</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7648613095156757</v>
+        <v>0.7570054176788609</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5316145466991916</v>
+        <v>0.5353172983366499</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6097804180231852</v>
+        <v>0.6033010066702763</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6307950385697932</v>
+        <v>0.6328640612760006</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7874043604573885</v>
+        <v>0.7960900550840672</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6380042308220545</v>
+        <v>0.6350987283677483</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6732187167058908</v>
+        <v>0.6728424215291942</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6912960374220364</v>
+        <v>0.6881874070517263</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8798224698539301</v>
+        <v>0.8773985895862101</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.807000285168303</v>
+        <v>0.8027284650467177</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8013866475622893</v>
+        <v>0.8029050681835566</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8079977054529636</v>
+        <v>0.8038121050382866</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8623480552150538</v>
+        <v>0.8597996053974618</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6584865578551903</v>
+        <v>0.6672027112304918</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7220341958544479</v>
+        <v>0.7217618092649739</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7148942375500561</v>
+        <v>0.7150813955907392</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8580388260502415</v>
+        <v>0.8586306061781084</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7144476631376212</v>
+        <v>0.7189861964497468</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7470027893827768</v>
+        <v>0.7541505077997567</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7488765811181115</v>
+        <v>0.749346651051359</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.8543883408159051</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8523569705452589</v>
+        <v>0.8523569705452591</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6782003045290408</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7882514071497627</v>
+        <v>0.7903772047781159</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7884582739869787</v>
+        <v>0.7829629741020697</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8192044154009034</v>
+        <v>0.8206301830204855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8148847568002748</v>
+        <v>0.8108015894345505</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6366925641301447</v>
+        <v>0.6333068820153653</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6439887668184252</v>
+        <v>0.6445624259563975</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7366317325797925</v>
+        <v>0.7366022737983685</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7852609322533172</v>
+        <v>0.7857206361908711</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7238550790356899</v>
+        <v>0.723947125234447</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7295438992943073</v>
+        <v>0.7283129094617189</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7891618517283699</v>
+        <v>0.7884819839989772</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.8067422735579221</v>
+        <v>0.8087838799334683</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.859385615406401</v>
+        <v>0.862416593387786</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8594529745582904</v>
+        <v>0.8562761347236943</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8828911281216264</v>
+        <v>0.8848175396322207</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.885824788438771</v>
+        <v>0.8820510391331012</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7189831158464178</v>
+        <v>0.7141668582301849</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7293240290455831</v>
+        <v>0.7282688421577311</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8145974095663601</v>
+        <v>0.811975823303688</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.8393962162404641</v>
+        <v>0.8400456820338542</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7773414749118511</v>
+        <v>0.778871439213354</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7828998619646893</v>
+        <v>0.7845652254331381</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8369803313696632</v>
+        <v>0.8388558292609257</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8544099445225326</v>
+        <v>0.8543194831352406</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.8333470239225838</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7795091946533992</v>
+        <v>0.7795091946533991</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7623329058467641</v>
@@ -969,7 +969,7 @@
         <v>0.8514013209568466</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.7910350981290336</v>
+        <v>0.7910350981290334</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8121703542438214</v>
+        <v>0.812784368401709</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7892444322932339</v>
+        <v>0.793599644499773</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8318510854260275</v>
+        <v>0.8327393001583626</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7607037225192231</v>
+        <v>0.7581533265287904</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6244591716864436</v>
+        <v>0.6222029766165639</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7169985708377379</v>
+        <v>0.7185441129495178</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7858249810143234</v>
+        <v>0.7888455988465212</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7475211694993318</v>
+        <v>0.7438263398735491</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.727845874366544</v>
+        <v>0.7296422130598935</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.766294111078724</v>
+        <v>0.7704328269261553</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8201580554421466</v>
+        <v>0.8213310349252486</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7646136841469976</v>
+        <v>0.7635776601859144</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8912675705311238</v>
+        <v>0.8893528405192122</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8809286706497248</v>
+        <v>0.8813521218708206</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9046657069515818</v>
+        <v>0.9017952599169783</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8395416747700808</v>
+        <v>0.8401722864520774</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7249549791596024</v>
+        <v>0.7215723388266407</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8106905824378559</v>
+        <v>0.8089555869097126</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8742160401513869</v>
+        <v>0.8755064294468261</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8154463582318282</v>
+        <v>0.8103884730634836</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7948183668282421</v>
+        <v>0.790707887469719</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8316312289321173</v>
+        <v>0.8321863534779561</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8771968341847494</v>
+        <v>0.877123680301263</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8162589071863215</v>
+        <v>0.8168744417740313</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.8126424661323052</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.8092101418336671</v>
+        <v>0.8092101418336669</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.7256235038118546</v>
@@ -1105,7 +1105,7 @@
         <v>0.750951444230102</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7733464021374539</v>
+        <v>0.7733464021374538</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.855528548062037</v>
+        <v>0.8505792446218653</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7575251345264209</v>
+        <v>0.7581080330712056</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7691328909070532</v>
+        <v>0.7660685338819527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7566829842875157</v>
+        <v>0.752742460631118</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6778262781576817</v>
+        <v>0.6826773037531555</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6141346912492284</v>
+        <v>0.6042044118797679</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6433738851384769</v>
+        <v>0.6397390890924014</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6996982366358555</v>
+        <v>0.6962916667709496</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7770967192705136</v>
+        <v>0.7776609855276</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6963318923631958</v>
+        <v>0.6973791364855685</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7149506388948176</v>
+        <v>0.7158406699553257</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7443536109728841</v>
+        <v>0.7427745589862724</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9168147970597416</v>
+        <v>0.9161460222468574</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8415220078199759</v>
+        <v>0.8441141173791857</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8519937116106487</v>
+        <v>0.8520343158847205</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.85018931127402</v>
+        <v>0.8544359032502844</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7679556312246094</v>
+        <v>0.7701102157953875</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7119461869128554</v>
+        <v>0.7066691465011572</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7419534751473059</v>
+        <v>0.7348695167953211</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7758355461456897</v>
+        <v>0.7765442399970631</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8324195845672763</v>
+        <v>0.8353734726233613</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7616014959974056</v>
+        <v>0.7636304191311856</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7808800958439059</v>
+        <v>0.7809632743164736</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.802296259364668</v>
+        <v>0.8065791439541928</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.7895525541315821</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9054110876054933</v>
+        <v>0.9054110876054935</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.6429990024398478</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7369252326020862</v>
+        <v>0.7302119958001471</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.775867303619179</v>
+        <v>0.7771855218020536</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7266523616693517</v>
+        <v>0.7291462545893201</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8664603235698816</v>
+        <v>0.8638416774185703</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5637508107193149</v>
+        <v>0.5684695817109533</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6215550161394875</v>
+        <v>0.6231046835713244</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6710427237433703</v>
+        <v>0.669795796750681</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7819553144540732</v>
+        <v>0.7799810898525931</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6742113218130827</v>
+        <v>0.6641846008133691</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7172853605350347</v>
+        <v>0.7190708057238465</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7190752604911533</v>
+        <v>0.7176843072410368</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8351423086744795</v>
+        <v>0.8346010487956254</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8452244739590815</v>
+        <v>0.8444898622373452</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.887143121581602</v>
+        <v>0.883096198819735</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8380415752050077</v>
+        <v>0.8374200747699698</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9335337694384171</v>
+        <v>0.9332734857666121</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7091709898984098</v>
+        <v>0.7092088577387496</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7511732166048367</v>
+        <v>0.7525814614789094</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7948685029724027</v>
+        <v>0.7887153348365831</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8495256637285974</v>
+        <v>0.8470954337272916</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7615410482974984</v>
+        <v>0.7544946919845718</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.8000474963941449</v>
+        <v>0.8034621523697245</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8048682241177239</v>
+        <v>0.7986732385138378</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8806672636652548</v>
+        <v>0.8805716609423122</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.7617258310705135</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.7284757046760838</v>
+        <v>0.7284757046760834</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.7678011620373878</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8243003875304786</v>
+        <v>0.8176466369894212</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7604988425953787</v>
+        <v>0.7583893987470562</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7770444613003664</v>
+        <v>0.7748380733007955</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7316830257549387</v>
+        <v>0.7328533366658448</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6135125492775297</v>
+        <v>0.6115806272432709</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6782671526929419</v>
+        <v>0.6777967551146235</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7033963605565632</v>
+        <v>0.7025116247936993</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6873313653885516</v>
+        <v>0.6886777497574391</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.7326527189956902</v>
+        <v>0.7289612498673106</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7345711839198426</v>
+        <v>0.7334114820679155</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7540946136686395</v>
+        <v>0.7582574130827331</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.7236526009280052</v>
+        <v>0.7238813701208745</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.90915103530256</v>
+        <v>0.9044200544201724</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8543602058900788</v>
+        <v>0.8549529464828445</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8704757494527841</v>
+        <v>0.8679540240391298</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.8202700724098987</v>
+        <v>0.8183945394198358</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7294057578219738</v>
+        <v>0.7266773414218737</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7821653697524985</v>
+        <v>0.7851820899679341</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8085699977576669</v>
+        <v>0.8130898399757892</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7689871507647335</v>
+        <v>0.7643436731716988</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.8066726421140167</v>
+        <v>0.8025979325733912</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.8077553325624049</v>
+        <v>0.803219188447569</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8287920436722307</v>
+        <v>0.8286126423009799</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7806790696474412</v>
+        <v>0.7793985889682382</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.85790881892293</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8509023820566647</v>
+        <v>0.8509023820566645</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.7159576285894973</v>
@@ -1513,7 +1513,7 @@
         <v>0.8085273779414317</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.8031550547740099</v>
+        <v>0.8031550547740101</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8300657357427361</v>
+        <v>0.8299947336421113</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8177142501978925</v>
+        <v>0.8179948707279895</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8285270436154331</v>
+        <v>0.8260836409320158</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.820080594679151</v>
+        <v>0.820534577723851</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6793618789323986</v>
+        <v>0.6796563497131761</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7333108353604025</v>
+        <v>0.7310954739185261</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7250215443891164</v>
+        <v>0.7268947421204174</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.731896871369056</v>
+        <v>0.7305290331100184</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7624676141213783</v>
+        <v>0.7617179471399579</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7851553143354491</v>
+        <v>0.7820773209619393</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7842927372402448</v>
+        <v>0.7867256537611372</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7841474134311486</v>
+        <v>0.7837944226874154</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8859809445764483</v>
+        <v>0.8869432144235051</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8763971201712466</v>
+        <v>0.8762197776073816</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8840874131215398</v>
+        <v>0.8847177007316379</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8749919952477136</v>
+        <v>0.8774781147197033</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7488733798569034</v>
+        <v>0.7519594161353482</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8001108365973956</v>
+        <v>0.7996324236343721</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7924519470412947</v>
+        <v>0.7970606894112902</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7849279638743452</v>
+        <v>0.7864616183803502</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.8098288522751446</v>
+        <v>0.8098174114073097</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8301951471700147</v>
+        <v>0.8289553581647306</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8295252987874122</v>
+        <v>0.8308379669183583</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.821921624545715</v>
+        <v>0.8233391293453854</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.8793536349183082</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.8250051712903136</v>
+        <v>0.8250051712903134</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.7453328083106003</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7929014128739625</v>
+        <v>0.7934946332400152</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8464236927303225</v>
+        <v>0.8452742847179343</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8532690031990704</v>
+        <v>0.8529485974457034</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7969716845168283</v>
+        <v>0.7985529398696605</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.7124126664888093</v>
+        <v>0.71163498280152</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7856703335445483</v>
+        <v>0.7854157486712688</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7657487162778593</v>
+        <v>0.7614066966676599</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.7098182485654023</v>
+        <v>0.7110205549066683</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.7619624318385068</v>
+        <v>0.7623721601269456</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.8232652015835086</v>
+        <v>0.8212171374039262</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.8164196455504948</v>
+        <v>0.8181634049181528</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.7621438426263026</v>
+        <v>0.7625584384001367</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8496455435378099</v>
+        <v>0.8503651218312802</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8944753552116695</v>
+        <v>0.8956337965549784</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9021862838220788</v>
+        <v>0.9045292710440048</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8478041975551989</v>
+        <v>0.8496569641277038</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7745069440380639</v>
+        <v>0.7758409706036035</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.8383815946548924</v>
+        <v>0.8403315850283245</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8268232987160069</v>
+        <v>0.8224219793501188</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7632236063684177</v>
+        <v>0.7645653382448481</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.8027766231101149</v>
+        <v>0.8014549174297985</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.8609015913808</v>
+        <v>0.8606047944010384</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.8550757485605929</v>
+        <v>0.85667407877601</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7992835352462245</v>
+        <v>0.7980645674790751</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.8430440069983642</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.8264633583380862</v>
+        <v>0.8264633583380863</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.713626529777061</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.830301165466482</v>
+        <v>0.8306456534827377</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8189759697073598</v>
+        <v>0.8194273746796841</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8301552547304524</v>
+        <v>0.8298351393420164</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8125562971944268</v>
+        <v>0.8127399023182691</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.6977721520795739</v>
+        <v>0.6981510962277921</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.7167443397931442</v>
+        <v>0.7168365794555097</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.7453926137674952</v>
+        <v>0.7460790691672898</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.7457666481994063</v>
+        <v>0.7453391355879495</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.7674791118559181</v>
+        <v>0.7669534477951858</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.7711726170215271</v>
+        <v>0.7713827966366892</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.7918426367751612</v>
+        <v>0.7918642720074618</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.7827984180046281</v>
+        <v>0.7820677412406597</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8556633537307452</v>
+        <v>0.8553821084969315</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8458678897493173</v>
+        <v>0.8473798052860224</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8547081008483015</v>
+        <v>0.8551686754435422</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.8375584996329222</v>
+        <v>0.8394656221820924</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7302922088040439</v>
+        <v>0.7279545379440623</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7477302367043016</v>
+        <v>0.7473560243901251</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.7768958040473157</v>
+        <v>0.7762332621067763</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.7682899491312805</v>
+        <v>0.7685804245759688</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.7871556206855586</v>
+        <v>0.7876568710603387</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.7923931753172311</v>
+        <v>0.7919548925252559</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.8109714271108657</v>
+        <v>0.8113732937598066</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.7999769403809257</v>
+        <v>0.7990874951854534</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>216367</v>
+        <v>216159</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>206622</v>
+        <v>206329</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>205572</v>
+        <v>205025</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>230412</v>
+        <v>227659</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>199505</v>
+        <v>197456</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>152704</v>
+        <v>153767</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>175427</v>
+        <v>173563</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>199370</v>
+        <v>200024</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>420354</v>
+        <v>424991</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>371308</v>
+        <v>369617</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>391443</v>
+        <v>391224</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>438908</v>
+        <v>436934</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>240200</v>
+        <v>239539</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>237854</v>
+        <v>236595</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>235416</v>
+        <v>235862</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>257626</v>
+        <v>256291</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>224933</v>
+        <v>224268</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>189147</v>
+        <v>191651</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>207721</v>
+        <v>207643</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>225950</v>
+        <v>226009</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>458062</v>
+        <v>458378</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>415796</v>
+        <v>418438</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>434345</v>
+        <v>438501</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>475466</v>
+        <v>475765</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>387813</v>
+        <v>388858</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>398587</v>
+        <v>395809</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>411712</v>
+        <v>412428</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>432416</v>
+        <v>430249</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>320861</v>
+        <v>319154</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>337299</v>
+        <v>337599</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>385320</v>
+        <v>385305</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>429140</v>
+        <v>429392</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>720916</v>
+        <v>721008</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>750914</v>
+        <v>749647</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>809411</v>
+        <v>808714</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>868975</v>
+        <v>871174</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>422810</v>
+        <v>424301</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>434477</v>
+        <v>432871</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>443719</v>
+        <v>444687</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>470060</v>
+        <v>468058</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>362331</v>
+        <v>359904</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>381994</v>
+        <v>381442</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>426103</v>
+        <v>424732</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>458725</v>
+        <v>459080</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>774185</v>
+        <v>775709</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>805833</v>
+        <v>807547</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>858456</v>
+        <v>860380</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>920320</v>
+        <v>920223</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>258957</v>
+        <v>259153</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>255752</v>
+        <v>257163</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>264999</v>
+        <v>265282</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>240377</v>
+        <v>239571</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>209451</v>
+        <v>208694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>243804</v>
+        <v>244329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>264280</v>
+        <v>265296</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>266402</v>
+        <v>265086</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>476199</v>
+        <v>477374</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>508881</v>
+        <v>511629</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>537100</v>
+        <v>537868</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>514107</v>
+        <v>513411</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>284177</v>
+        <v>283567</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>285461</v>
+        <v>285599</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>288195</v>
+        <v>287280</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>265289</v>
+        <v>265489</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>243159</v>
+        <v>242024</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>275662</v>
+        <v>275072</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>294007</v>
+        <v>294441</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>290610</v>
+        <v>288807</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>520016</v>
+        <v>517327</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>552270</v>
+        <v>552638</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>574453</v>
+        <v>574405</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>548832</v>
+        <v>549246</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>306853</v>
+        <v>305078</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>283301</v>
+        <v>283519</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>283782</v>
+        <v>282652</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>282352</v>
+        <v>280882</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>251783</v>
+        <v>253585</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>238868</v>
+        <v>235006</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>247816</v>
+        <v>246416</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>295245</v>
+        <v>293808</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>567379</v>
+        <v>567791</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>531255</v>
+        <v>532054</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>539176</v>
+        <v>539848</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>591841</v>
+        <v>590585</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>328835</v>
+        <v>328595</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>314714</v>
+        <v>315683</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>314355</v>
+        <v>314370</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>317244</v>
+        <v>318828</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>285262</v>
+        <v>286062</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>276912</v>
+        <v>274860</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>285787</v>
+        <v>283059</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>327372</v>
+        <v>327671</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>607772</v>
+        <v>609929</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>581051</v>
+        <v>582599</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>588897</v>
+        <v>588960</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>637911</v>
+        <v>641317</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>149823</v>
+        <v>148458</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>164963</v>
+        <v>165244</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>152743</v>
+        <v>153267</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>178201</v>
+        <v>177662</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>117073</v>
+        <v>118053</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>136488</v>
+        <v>136828</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>146681</v>
+        <v>146409</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>178506</v>
+        <v>178055</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>277085</v>
+        <v>272964</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>310017</v>
+        <v>310789</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>308331</v>
+        <v>307734</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>362407</v>
+        <v>362172</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>171841</v>
+        <v>171692</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>188623</v>
+        <v>187762</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>176157</v>
+        <v>176027</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>191995</v>
+        <v>191942</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>147272</v>
+        <v>147280</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>164951</v>
+        <v>165260</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>173748</v>
+        <v>172403</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>193931</v>
+        <v>193376</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>312975</v>
+        <v>310079</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>345788</v>
+        <v>347264</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>345118</v>
+        <v>342462</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>382162</v>
+        <v>382121</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>223230</v>
+        <v>221428</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>208362</v>
+        <v>207784</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>203712</v>
+        <v>203133</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>198072</v>
+        <v>198389</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>170645</v>
+        <v>170107</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>189936</v>
+        <v>189804</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>191339</v>
+        <v>191099</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>181284</v>
+        <v>181639</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>402193</v>
+        <v>400167</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>406961</v>
+        <v>406319</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>402826</v>
+        <v>405050</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>386761</v>
+        <v>386883</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>246208</v>
+        <v>244927</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>234078</v>
+        <v>234241</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>228206</v>
+        <v>227545</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>222053</v>
+        <v>221545</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>202880</v>
+        <v>202121</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>219031</v>
+        <v>219875</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>219949</v>
+        <v>221178</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>202820</v>
+        <v>201596</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>442827</v>
+        <v>440590</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>447506</v>
+        <v>444993</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>442728</v>
+        <v>442632</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>417239</v>
+        <v>416555</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>510513</v>
+        <v>510469</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>536228</v>
+        <v>536412</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>543232</v>
+        <v>541630</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>590201</v>
+        <v>590528</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>433582</v>
+        <v>433770</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>507404</v>
+        <v>505871</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>500462</v>
+        <v>501755</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>565066</v>
+        <v>564010</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>955559</v>
+        <v>954620</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1058155</v>
+        <v>1054006</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1055605</v>
+        <v>1058879</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1169747</v>
+        <v>1169221</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>544902</v>
+        <v>545494</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>574711</v>
+        <v>574594</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>579661</v>
+        <v>580074</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>629720</v>
+        <v>631510</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>477945</v>
+        <v>479915</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>553625</v>
+        <v>553294</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>547007</v>
+        <v>550189</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>606009</v>
+        <v>607193</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1014915</v>
+        <v>1014900</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1118855</v>
+        <v>1117184</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1116485</v>
+        <v>1118251</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1226097</v>
+        <v>1228211</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>589756</v>
+        <v>590197</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>659447</v>
+        <v>658552</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>663526</v>
+        <v>663277</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>636041</v>
+        <v>637303</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>558183</v>
+        <v>557574</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>645746</v>
+        <v>645536</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>632636</v>
+        <v>629049</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>590094</v>
+        <v>591093</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1163750</v>
+        <v>1164376</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1318049</v>
+        <v>1314770</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1309370</v>
+        <v>1312166</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1241839</v>
+        <v>1242515</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>631962</v>
+        <v>632497</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>696884</v>
+        <v>697786</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>701565</v>
+        <v>703387</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>676609</v>
+        <v>678087</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>606835</v>
+        <v>607880</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>689069</v>
+        <v>690672</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>683094</v>
+        <v>679458</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>634491</v>
+        <v>635607</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1226086</v>
+        <v>1224067</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1378305</v>
+        <v>1377830</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1371366</v>
+        <v>1373930</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1302355</v>
+        <v>1300369</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2719617</v>
+        <v>2720746</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2800698</v>
+        <v>2802242</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2813825</v>
+        <v>2812739</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>2870568</v>
+        <v>2871217</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>2357910</v>
+        <v>2359190</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2546920</v>
+        <v>2547248</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2638177</v>
+        <v>2640607</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2786421</v>
+        <v>2784824</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>5107309</v>
+        <v>5103811</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>5377551</v>
+        <v>5379017</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>5486542</v>
+        <v>5486692</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>5690224</v>
+        <v>5684913</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2802690</v>
+        <v>2801769</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2892662</v>
+        <v>2897832</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2897047</v>
+        <v>2898608</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2958895</v>
+        <v>2965632</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2467801</v>
+        <v>2459902</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2657027</v>
+        <v>2655697</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2749677</v>
+        <v>2747332</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2870576</v>
+        <v>2871661</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>5238250</v>
+        <v>5241586</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>5525526</v>
+        <v>5522470</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>5619082</v>
+        <v>5621867</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>5815096</v>
+        <v>5808631</v>
       </c>
     </row>
     <row r="40">
